--- a/data_extract/2025-09-15.xlsx
+++ b/data_extract/2025-09-15.xlsx
@@ -3061,12 +3061,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3096,11 +3102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3402,8 +3409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D387"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3792,8 +3799,8 @@
       <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="D23" t="s">
-        <v>12</v>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
